--- a/Excel/13-div23q2.xlsx
+++ b/Excel/13-div23q2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A7/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="11_23F921ED631B8D299F2E3C025A71449C5494AF82" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91106BB7-091B-4926-B23C-0120687AB159}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="11_23F921ED631B8D299F2E3C025A71449C5494AF82" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{105C4D67-3798-4D93-BF1F-BEE9CFBBB6EC}"/>
   <bookViews>
-    <workbookView xWindow="7548" yWindow="1608" windowWidth="13140" windowHeight="9564" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7548" yWindow="1608" windowWidth="13140" windowHeight="9564" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="xdate" sheetId="1" r:id="rId1"/>
@@ -527,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -537,7 +537,8 @@
     <col min="3" max="3" width="9" style="7"/>
     <col min="4" max="4" width="10.375" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.75" style="5" customWidth="1"/>
-    <col min="6" max="7" width="10.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.125" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="14"/>
   </cols>
@@ -779,13 +780,14 @@
       <c r="D8" s="5">
         <v>29900</v>
       </c>
-      <c r="E8" s="5">
-        <v>26910</v>
+      <c r="E8" s="11">
+        <f>D8</f>
+        <v>29900</v>
       </c>
       <c r="F8" s="3">
         <v>45159</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="12">
         <v>45175</v>
       </c>
       <c r="H8" s="5">
@@ -818,7 +820,7 @@
         <v>45159</v>
       </c>
       <c r="G9" s="3">
-        <v>45181</v>
+        <v>45176</v>
       </c>
       <c r="H9" s="5">
         <v>772500</v>
@@ -1091,18 +1093,18 @@
         <v>26</v>
       </c>
       <c r="B18" s="9">
-        <v>0.20100000000000001</v>
+        <v>0.20150000000000001</v>
       </c>
       <c r="C18" s="7">
         <v>42000</v>
       </c>
       <c r="D18" s="5">
         <f>B18*C18</f>
-        <v>8442</v>
+        <v>8463</v>
       </c>
       <c r="E18" s="5">
         <f>D18*0.9</f>
-        <v>7597.8</v>
+        <v>7616.7</v>
       </c>
       <c r="F18" s="3">
         <v>45166</v>
@@ -1283,7 +1285,7 @@
     <row r="24" spans="1:10">
       <c r="E24" s="5">
         <f>SUM(E2:E23)</f>
-        <v>111755.7</v>
+        <v>114764.59999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1300,8 +1302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C16F4AC6-2EE3-46DC-9B08-B17A7F3590CB}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1445,7 +1447,7 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" t="s">
+      <c r="A5" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="9">
@@ -1457,13 +1459,14 @@
       <c r="D5" s="5">
         <v>29900</v>
       </c>
-      <c r="E5" s="5">
-        <v>26910</v>
+      <c r="E5" s="11">
+        <f>D5</f>
+        <v>29900</v>
       </c>
       <c r="F5" s="3">
         <v>45159</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="12">
         <v>45175</v>
       </c>
       <c r="H5" s="5">
@@ -1606,31 +1609,31 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" s="9">
-        <v>0.28999999999999998</v>
+        <v>0.6</v>
       </c>
       <c r="C10" s="7">
-        <v>60000</v>
+        <v>10000</v>
       </c>
       <c r="D10" s="5">
-        <v>17400</v>
+        <v>6000</v>
       </c>
       <c r="E10" s="5">
-        <v>15660</v>
+        <v>5400</v>
       </c>
       <c r="F10" s="3">
-        <v>45161</v>
+        <v>45159</v>
       </c>
       <c r="G10" s="3">
-        <v>45177</v>
+        <v>45176</v>
       </c>
       <c r="H10" s="5">
-        <v>1053000</v>
+        <v>772500</v>
       </c>
       <c r="I10" s="14">
-        <v>1.49</v>
+        <v>0.7</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1638,31 +1641,31 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="9">
-        <v>0.34</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C11" s="7">
-        <v>4200</v>
+        <v>60000</v>
       </c>
       <c r="D11" s="5">
-        <v>1428</v>
+        <v>17400</v>
       </c>
       <c r="E11" s="5">
-        <v>1285.2</v>
+        <v>15660</v>
       </c>
       <c r="F11" s="3">
-        <v>45162</v>
+        <v>45161</v>
       </c>
       <c r="G11" s="3">
         <v>45177</v>
       </c>
       <c r="H11" s="5">
-        <v>233100</v>
+        <v>1053000</v>
       </c>
       <c r="I11" s="14">
-        <v>0.55000000000000004</v>
+        <v>1.49</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -1670,19 +1673,19 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="9">
-        <v>0.25</v>
+        <v>0.34</v>
       </c>
       <c r="C12" s="7">
-        <v>27000</v>
+        <v>4200</v>
       </c>
       <c r="D12" s="5">
-        <v>6750</v>
+        <v>1428</v>
       </c>
       <c r="E12" s="5">
-        <v>6075</v>
+        <v>1285.2</v>
       </c>
       <c r="F12" s="3">
         <v>45162</v>
@@ -1691,10 +1694,10 @@
         <v>45177</v>
       </c>
       <c r="H12" s="5">
-        <v>1046250</v>
+        <v>233100</v>
       </c>
       <c r="I12" s="14">
-        <v>0.57999999999999996</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -1702,19 +1705,19 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="9">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="C13" s="7">
-        <v>36000</v>
+        <v>27000</v>
       </c>
       <c r="D13" s="5">
-        <v>5400</v>
+        <v>6750</v>
       </c>
       <c r="E13" s="5">
-        <v>4860</v>
+        <v>6075</v>
       </c>
       <c r="F13" s="3">
         <v>45162</v>
@@ -1723,10 +1726,10 @@
         <v>45177</v>
       </c>
       <c r="H13" s="5">
-        <v>367200</v>
+        <v>1046250</v>
       </c>
       <c r="I13" s="14">
-        <v>1.32</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -1734,31 +1737,31 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="9">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="C14" s="7">
-        <v>27000</v>
+        <v>36000</v>
       </c>
       <c r="D14" s="5">
-        <v>1350</v>
+        <v>5400</v>
       </c>
       <c r="E14" s="5">
-        <v>1215</v>
+        <v>4860</v>
       </c>
       <c r="F14" s="3">
-        <v>45163</v>
+        <v>45162</v>
       </c>
       <c r="G14" s="3">
         <v>45177</v>
       </c>
       <c r="H14" s="5">
-        <v>201150</v>
+        <v>367200</v>
       </c>
       <c r="I14" s="14">
-        <v>0.6</v>
+        <v>1.32</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -1766,31 +1769,31 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B15" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="C15" s="7">
+        <v>27000</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1350</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1215</v>
+      </c>
+      <c r="F15" s="3">
+        <v>45163</v>
+      </c>
+      <c r="G15" s="3">
+        <v>45177</v>
+      </c>
+      <c r="H15" s="5">
+        <v>201150</v>
+      </c>
+      <c r="I15" s="14">
         <v>0.6</v>
-      </c>
-      <c r="C15" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D15" s="5">
-        <v>6000</v>
-      </c>
-      <c r="E15" s="5">
-        <v>5400</v>
-      </c>
-      <c r="F15" s="3">
-        <v>45159</v>
-      </c>
-      <c r="G15" s="3">
-        <v>45181</v>
-      </c>
-      <c r="H15" s="5">
-        <v>772500</v>
-      </c>
-      <c r="I15" s="14">
-        <v>0.7</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -1929,18 +1932,18 @@
         <v>26</v>
       </c>
       <c r="B20" s="9">
-        <v>0.20100000000000001</v>
+        <v>0.20150000000000001</v>
       </c>
       <c r="C20" s="7">
         <v>42000</v>
       </c>
       <c r="D20" s="5">
         <f>B20*C20</f>
-        <v>8442</v>
+        <v>8463</v>
       </c>
       <c r="E20" s="5">
         <f>D20*0.9</f>
-        <v>7597.8</v>
+        <v>7616.7</v>
       </c>
       <c r="F20" s="3">
         <v>45166</v>
@@ -2057,7 +2060,7 @@
     <row r="24" spans="1:10" ht="13.9">
       <c r="E24" s="5">
         <f>SUM(E2:E23)</f>
-        <v>111755.7</v>
+        <v>114764.59999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/13-div23q2.xlsx
+++ b/Excel/13-div23q2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26821"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26914"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A7/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="11_23F921ED631B8D299F2E3C025A71449C5494AF82" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{105C4D67-3798-4D93-BF1F-BEE9CFBBB6EC}"/>
+  <xr:revisionPtr revIDLastSave="101" documentId="11_23F921ED631B8D299F2E3C025A71449C5494AF82" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E6FEDA2-44B7-4F78-9C76-ACC6D82E574D}"/>
   <bookViews>
-    <workbookView xWindow="7548" yWindow="1608" windowWidth="13140" windowHeight="9564" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7548" yWindow="1608" windowWidth="13140" windowHeight="9564" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="xdate" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
   <si>
     <t>name</t>
   </si>
@@ -66,12 +66,6 @@
     <t>actual</t>
   </si>
   <si>
-    <t>SINGER</t>
-  </si>
-  <si>
-    <t>STA</t>
-  </si>
-  <si>
     <t>SCC</t>
   </si>
   <si>
@@ -81,13 +75,13 @@
     <t>WHAIR</t>
   </si>
   <si>
+    <t>JASIF</t>
+  </si>
+  <si>
+    <t>KCE</t>
+  </si>
+  <si>
     <t>WHART</t>
-  </si>
-  <si>
-    <t>JASIF</t>
-  </si>
-  <si>
-    <t>KCE</t>
   </si>
   <si>
     <t>AIMIRT</t>
@@ -141,7 +135,7 @@
     <numFmt numFmtId="188" formatCode="&quot;฿&quot;#,##0.00"/>
     <numFmt numFmtId="189" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,6 +147,27 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
       <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -193,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -221,6 +236,15 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="188" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="188" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="188" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="189" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9"/>
@@ -575,36 +599,36 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
+    <row r="2" spans="1:10" s="18" customFormat="1" ht="14.25">
+      <c r="A2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="C2" s="7">
-        <v>6000</v>
-      </c>
-      <c r="D2" s="5">
-        <v>1800</v>
-      </c>
-      <c r="E2" s="5">
-        <v>1620</v>
-      </c>
-      <c r="F2" s="3">
-        <v>45141</v>
-      </c>
-      <c r="G2" s="3">
-        <v>45157</v>
-      </c>
-      <c r="H2" s="5">
-        <v>148800</v>
-      </c>
-      <c r="I2" s="14">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="J2">
-        <v>2</v>
+      <c r="B2" s="19">
+        <v>2.5</v>
+      </c>
+      <c r="C2" s="20">
+        <v>600</v>
+      </c>
+      <c r="D2" s="21">
+        <v>1500</v>
+      </c>
+      <c r="E2" s="21">
+        <v>1350</v>
+      </c>
+      <c r="F2" s="22">
+        <v>45147</v>
+      </c>
+      <c r="G2" s="22">
+        <v>45163</v>
+      </c>
+      <c r="H2" s="21">
+        <v>243000</v>
+      </c>
+      <c r="I2" s="23">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J2" s="18">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="14.25">
@@ -612,131 +636,132 @@
         <v>11</v>
       </c>
       <c r="B3" s="9">
-        <v>1</v>
+        <v>0.23699999999999999</v>
       </c>
       <c r="C3" s="7">
-        <v>5000</v>
+        <v>30000</v>
       </c>
       <c r="D3" s="5">
-        <v>5000</v>
-      </c>
-      <c r="E3" s="5">
-        <v>4500</v>
+        <v>7110</v>
+      </c>
+      <c r="E3" s="15">
+        <v>6399</v>
       </c>
       <c r="F3" s="3">
-        <v>45162</v>
+        <v>45153</v>
       </c>
       <c r="G3" s="3">
-        <v>45177</v>
+        <v>45176</v>
       </c>
       <c r="H3" s="5">
-        <v>200000</v>
+        <v>441000</v>
       </c>
       <c r="I3" s="14">
-        <v>2.25</v>
+        <v>1.45</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="14.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="9">
-        <v>2.5</v>
+        <v>0.13689999999999999</v>
       </c>
       <c r="C4" s="7">
-        <v>600</v>
+        <v>50000</v>
       </c>
       <c r="D4" s="5">
-        <v>1500</v>
-      </c>
-      <c r="E4" s="11">
-        <v>1350</v>
+        <v>6845</v>
+      </c>
+      <c r="E4" s="17">
+        <v>6160.5</v>
       </c>
       <c r="F4" s="3">
-        <v>45147</v>
-      </c>
-      <c r="G4" s="12">
-        <v>45163</v>
+        <v>45156</v>
+      </c>
+      <c r="G4" s="3">
+        <v>45188</v>
       </c>
       <c r="H4" s="5">
-        <v>243000</v>
+        <v>435000</v>
       </c>
       <c r="I4" s="14">
-        <v>0.56000000000000005</v>
+        <v>1.42</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="14.25">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:10" s="18" customFormat="1" ht="14.25">
+      <c r="A5" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="9">
-        <v>0.23699999999999999</v>
-      </c>
-      <c r="C5" s="7">
-        <v>30000</v>
-      </c>
-      <c r="D5" s="5">
-        <v>7110</v>
-      </c>
-      <c r="E5" s="5">
-        <v>6399</v>
-      </c>
-      <c r="F5" s="3">
-        <v>45153</v>
-      </c>
-      <c r="G5" s="3">
+      <c r="B5" s="19">
+        <v>0.23</v>
+      </c>
+      <c r="C5" s="20">
+        <v>130000</v>
+      </c>
+      <c r="D5" s="21">
+        <v>29900</v>
+      </c>
+      <c r="E5" s="21">
+        <f>D5</f>
+        <v>29900</v>
+      </c>
+      <c r="F5" s="22">
+        <v>45159</v>
+      </c>
+      <c r="G5" s="22">
+        <v>45175</v>
+      </c>
+      <c r="H5" s="21">
+        <v>1300000</v>
+      </c>
+      <c r="I5" s="23">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="J5" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="14.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="C6" s="7">
+        <v>10000</v>
+      </c>
+      <c r="D6" s="5">
+        <v>6000</v>
+      </c>
+      <c r="E6" s="15">
+        <v>5520</v>
+      </c>
+      <c r="F6" s="3">
+        <v>45159</v>
+      </c>
+      <c r="G6" s="3">
         <v>45176</v>
       </c>
-      <c r="H5" s="5">
-        <v>441000</v>
-      </c>
-      <c r="I5" s="14">
-        <v>1.45</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="14.25">
-      <c r="A6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="9">
-        <v>0.13689999999999999</v>
-      </c>
-      <c r="C6" s="7">
-        <v>50000</v>
-      </c>
-      <c r="D6" s="5">
-        <v>6845</v>
-      </c>
-      <c r="E6" s="5">
-        <v>6160.5</v>
-      </c>
-      <c r="F6" s="3">
-        <v>45156</v>
-      </c>
-      <c r="G6" s="3">
-        <v>45188</v>
-      </c>
       <c r="H6" s="5">
-        <v>435000</v>
+        <v>772500</v>
       </c>
       <c r="I6" s="14">
-        <v>1.42</v>
+        <v>0.7</v>
       </c>
       <c r="J6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="14.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="9">
@@ -748,8 +773,8 @@
       <c r="D7" s="5">
         <v>5760</v>
       </c>
-      <c r="E7" s="5">
-        <v>5184</v>
+      <c r="E7" s="15">
+        <v>5211</v>
       </c>
       <c r="F7" s="3">
         <v>45159</v>
@@ -767,150 +792,150 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="14.25">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:10" s="18" customFormat="1" ht="14.25">
+      <c r="A8" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="9">
-        <v>0.23</v>
-      </c>
-      <c r="C8" s="7">
-        <v>130000</v>
-      </c>
-      <c r="D8" s="5">
-        <v>29900</v>
-      </c>
-      <c r="E8" s="11">
-        <f>D8</f>
-        <v>29900</v>
-      </c>
-      <c r="F8" s="3">
-        <v>45159</v>
-      </c>
-      <c r="G8" s="12">
+      <c r="B8" s="19">
+        <v>0.223</v>
+      </c>
+      <c r="C8" s="20">
+        <v>10000</v>
+      </c>
+      <c r="D8" s="21">
+        <v>2230</v>
+      </c>
+      <c r="E8" s="21">
+        <v>2007</v>
+      </c>
+      <c r="F8" s="22">
+        <v>45161</v>
+      </c>
+      <c r="G8" s="22">
         <v>45175</v>
       </c>
-      <c r="H8" s="5">
-        <v>1300000</v>
-      </c>
-      <c r="I8" s="14">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="J8">
+      <c r="H8" s="21">
+        <v>110000</v>
+      </c>
+      <c r="I8" s="23">
+        <v>1.82</v>
+      </c>
+      <c r="J8" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="14.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="9">
-        <v>0.6</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C9" s="7">
-        <v>10000</v>
+        <v>60000</v>
       </c>
       <c r="D9" s="5">
-        <v>6000</v>
-      </c>
-      <c r="E9" s="5">
-        <v>5400</v>
+        <v>17400</v>
+      </c>
+      <c r="E9" s="15">
+        <v>15660</v>
       </c>
       <c r="F9" s="3">
-        <v>45159</v>
+        <v>45161</v>
       </c>
       <c r="G9" s="3">
-        <v>45176</v>
+        <v>45177</v>
       </c>
       <c r="H9" s="5">
-        <v>772500</v>
+        <v>1053000</v>
       </c>
       <c r="I9" s="14">
-        <v>0.7</v>
+        <v>1.49</v>
       </c>
       <c r="J9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="9">
-        <v>0.223</v>
+        <v>0.34</v>
       </c>
       <c r="C10" s="7">
-        <v>10000</v>
+        <v>4200</v>
       </c>
       <c r="D10" s="5">
-        <v>2230</v>
-      </c>
-      <c r="E10" s="5">
-        <v>2007</v>
+        <v>1428</v>
+      </c>
+      <c r="E10" s="15">
+        <v>1285.2</v>
       </c>
       <c r="F10" s="3">
-        <v>45161</v>
+        <v>45162</v>
       </c>
       <c r="G10" s="3">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="H10" s="5">
-        <v>110000</v>
+        <v>233100</v>
       </c>
       <c r="I10" s="14">
-        <v>1.82</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="9">
-        <v>0.28999999999999998</v>
+        <v>0.25</v>
       </c>
       <c r="C11" s="7">
-        <v>60000</v>
+        <v>27000</v>
       </c>
       <c r="D11" s="5">
-        <v>17400</v>
-      </c>
-      <c r="E11" s="5">
-        <v>15660</v>
+        <v>6750</v>
+      </c>
+      <c r="E11" s="15">
+        <f>D11</f>
+        <v>6750</v>
       </c>
       <c r="F11" s="3">
-        <v>45161</v>
+        <v>45162</v>
       </c>
       <c r="G11" s="3">
         <v>45177</v>
       </c>
       <c r="H11" s="5">
-        <v>1053000</v>
+        <v>1046250</v>
       </c>
       <c r="I11" s="14">
-        <v>1.49</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="J11">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="14.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="9">
-        <v>0.34</v>
+        <v>0.15</v>
       </c>
       <c r="C12" s="7">
-        <v>4200</v>
+        <v>36000</v>
       </c>
       <c r="D12" s="5">
-        <v>1428</v>
-      </c>
-      <c r="E12" s="5">
-        <v>1285.2</v>
+        <v>5400</v>
+      </c>
+      <c r="E12" s="15">
+        <v>4860</v>
       </c>
       <c r="F12" s="3">
         <v>45162</v>
@@ -919,379 +944,317 @@
         <v>45177</v>
       </c>
       <c r="H12" s="5">
-        <v>233100</v>
+        <v>367200</v>
       </c>
       <c r="I12" s="14">
-        <v>0.55000000000000004</v>
+        <v>1.32</v>
       </c>
       <c r="J12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="14.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="9">
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
       <c r="C13" s="7">
         <v>27000</v>
       </c>
       <c r="D13" s="5">
-        <v>6750</v>
-      </c>
-      <c r="E13" s="5">
-        <v>6075</v>
+        <v>1350</v>
+      </c>
+      <c r="E13" s="15">
+        <f>D13</f>
+        <v>1350</v>
       </c>
       <c r="F13" s="3">
-        <v>45162</v>
+        <v>45163</v>
       </c>
       <c r="G13" s="3">
         <v>45177</v>
       </c>
       <c r="H13" s="5">
-        <v>1046250</v>
+        <v>201150</v>
       </c>
       <c r="I13" s="14">
-        <v>0.57999999999999996</v>
+        <v>0.6</v>
       </c>
       <c r="J13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="14.25">
-      <c r="A14" s="10" t="s">
+    <row r="14" spans="1:10" s="18" customFormat="1" ht="14.25">
+      <c r="A14" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="9">
-        <v>0.15</v>
-      </c>
-      <c r="C14" s="7">
-        <v>36000</v>
-      </c>
-      <c r="D14" s="5">
-        <v>5400</v>
-      </c>
-      <c r="E14" s="5">
-        <v>4860</v>
-      </c>
-      <c r="F14" s="3">
-        <v>45162</v>
-      </c>
-      <c r="G14" s="3">
-        <v>45177</v>
-      </c>
-      <c r="H14" s="5">
-        <v>367200</v>
-      </c>
-      <c r="I14" s="14">
-        <v>1.32</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="B14" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="C14" s="20">
+        <v>15000</v>
+      </c>
+      <c r="D14" s="21">
+        <v>1500</v>
+      </c>
+      <c r="E14" s="21">
+        <v>1350</v>
+      </c>
+      <c r="F14" s="22">
+        <v>45163</v>
+      </c>
+      <c r="G14" s="22">
+        <v>45175</v>
+      </c>
+      <c r="H14" s="21">
+        <v>430500</v>
+      </c>
+      <c r="I14" s="23">
+        <v>0.31</v>
+      </c>
+      <c r="J14" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="14.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="9">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="C15" s="7">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="D15" s="5">
-        <v>1350</v>
-      </c>
-      <c r="E15" s="5">
-        <v>1215</v>
+        <v>2400</v>
+      </c>
+      <c r="E15" s="17">
+        <v>2160</v>
       </c>
       <c r="F15" s="3">
-        <v>45163</v>
+        <v>45166</v>
       </c>
       <c r="G15" s="3">
-        <v>45177</v>
+        <v>45181</v>
       </c>
       <c r="H15" s="5">
-        <v>201150</v>
+        <v>114000</v>
       </c>
       <c r="I15" s="14">
-        <v>0.6</v>
+        <v>1.89</v>
       </c>
       <c r="J15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" ht="14.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
       <c r="B16" s="9">
-        <v>0.1</v>
+        <v>0.20150000000000001</v>
       </c>
       <c r="C16" s="7">
-        <v>15000</v>
+        <v>42000</v>
       </c>
       <c r="D16" s="5">
-        <v>1500</v>
-      </c>
-      <c r="E16" s="5">
-        <v>1350</v>
+        <f>B16*C16</f>
+        <v>8463</v>
+      </c>
+      <c r="E16" s="17">
+        <f>D16*0.9</f>
+        <v>7616.7</v>
       </c>
       <c r="F16" s="3">
-        <v>45163</v>
+        <v>45166</v>
       </c>
       <c r="G16" s="3">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="H16" s="5">
-        <v>430500</v>
+        <v>313200</v>
       </c>
       <c r="I16" s="14">
-        <v>0.31</v>
+        <v>2.08</v>
       </c>
       <c r="J16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" ht="14.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
       <c r="B17" s="9">
-        <v>0.08</v>
+        <v>0.25</v>
       </c>
       <c r="C17" s="7">
-        <v>30000</v>
+        <v>7200</v>
       </c>
       <c r="D17" s="5">
-        <v>2400</v>
-      </c>
-      <c r="E17" s="5">
-        <v>2160</v>
+        <v>1800</v>
+      </c>
+      <c r="E17" s="17">
+        <v>1620</v>
       </c>
       <c r="F17" s="3">
         <v>45166</v>
       </c>
       <c r="G17" s="3">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="H17" s="5">
-        <v>114000</v>
+        <v>288000</v>
       </c>
       <c r="I17" s="14">
-        <v>1.89</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="J17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" ht="14.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="9">
-        <v>0.20150000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="C18" s="7">
-        <v>42000</v>
+        <v>45000</v>
       </c>
       <c r="D18" s="5">
-        <f>B18*C18</f>
-        <v>8463</v>
-      </c>
-      <c r="E18" s="5">
-        <f>D18*0.9</f>
-        <v>7616.7</v>
+        <v>7200</v>
+      </c>
+      <c r="E18" s="17">
+        <v>6480</v>
       </c>
       <c r="F18" s="3">
         <v>45166</v>
       </c>
       <c r="G18" s="3">
-        <v>45183</v>
+        <v>45182</v>
       </c>
       <c r="H18" s="5">
-        <v>313200</v>
+        <v>495000</v>
       </c>
       <c r="I18" s="14">
-        <v>2.08</v>
+        <v>1.31</v>
       </c>
       <c r="J18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" ht="14.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
       <c r="B19" s="9">
-        <v>0.25</v>
+        <v>0.7</v>
       </c>
       <c r="C19" s="7">
-        <v>7200</v>
+        <v>1200</v>
       </c>
       <c r="D19" s="5">
-        <v>1800</v>
-      </c>
-      <c r="E19" s="5">
-        <v>1620</v>
+        <v>840</v>
+      </c>
+      <c r="E19" s="16">
+        <v>772.8</v>
       </c>
       <c r="F19" s="3">
-        <v>45166</v>
+        <v>45167</v>
       </c>
       <c r="G19" s="3">
-        <v>45182</v>
+        <v>45180</v>
       </c>
       <c r="H19" s="5">
-        <v>288000</v>
+        <v>44400</v>
       </c>
       <c r="I19" s="14">
-        <v>0.56000000000000005</v>
+        <v>1.7</v>
       </c>
       <c r="J19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" ht="14.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
       <c r="B20" s="9">
-        <v>0.16</v>
+        <v>0.1</v>
       </c>
       <c r="C20" s="7">
-        <v>45000</v>
+        <v>15000</v>
       </c>
       <c r="D20" s="5">
-        <v>7200</v>
-      </c>
-      <c r="E20" s="5">
-        <v>6480</v>
+        <v>1500</v>
+      </c>
+      <c r="E20" s="17">
+        <v>1350</v>
       </c>
       <c r="F20" s="3">
-        <v>45166</v>
+        <v>45169</v>
       </c>
       <c r="G20" s="3">
-        <v>45182</v>
+        <v>45183</v>
       </c>
       <c r="H20" s="5">
-        <v>495000</v>
+        <v>321900</v>
       </c>
       <c r="I20" s="14">
-        <v>1.31</v>
+        <v>0.42</v>
       </c>
       <c r="J20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" ht="14.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
       <c r="B21" s="9">
-        <v>0.7</v>
+        <v>0.1009</v>
       </c>
       <c r="C21" s="7">
-        <v>1200</v>
+        <v>20000</v>
       </c>
       <c r="D21" s="5">
-        <v>840</v>
-      </c>
-      <c r="E21" s="5">
-        <v>756</v>
+        <v>2018</v>
+      </c>
+      <c r="E21" s="17">
+        <f>D21</f>
+        <v>2018</v>
       </c>
       <c r="F21" s="3">
-        <v>45167</v>
+        <v>45170</v>
       </c>
       <c r="G21" s="3">
-        <v>45182</v>
+        <v>45188</v>
       </c>
       <c r="H21" s="5">
-        <v>44400</v>
+        <v>150000</v>
       </c>
       <c r="I21" s="14">
-        <v>1.7</v>
+        <v>1.21</v>
       </c>
       <c r="J21">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="C22" s="7">
-        <v>15000</v>
-      </c>
-      <c r="D22" s="5">
-        <v>1500</v>
-      </c>
       <c r="E22" s="5">
-        <v>1350</v>
-      </c>
-      <c r="F22" s="3">
-        <v>45169</v>
-      </c>
-      <c r="G22" s="3">
-        <v>45183</v>
-      </c>
-      <c r="H22" s="5">
-        <v>321900</v>
-      </c>
-      <c r="I22" s="14">
-        <v>0.42</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="9">
-        <v>0.1009</v>
-      </c>
-      <c r="C23" s="7">
-        <v>20000</v>
-      </c>
-      <c r="D23" s="5">
-        <v>2018</v>
-      </c>
-      <c r="E23" s="5">
-        <v>1816.2</v>
-      </c>
-      <c r="F23" s="3">
-        <v>45170</v>
-      </c>
-      <c r="G23" s="3">
-        <v>45188</v>
-      </c>
-      <c r="H23" s="5">
-        <v>150000</v>
-      </c>
-      <c r="I23" s="14">
-        <v>1.21</v>
-      </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="E24" s="5">
-        <f>SUM(E2:E23)</f>
-        <v>114764.59999999999</v>
+        <f>SUM(E2:E21)</f>
+        <v>109820.2</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J23">
-    <sortCondition descending="1" ref="J2:J23"/>
-    <sortCondition ref="F2:F23"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J21">
+    <sortCondition ref="F2:F21"/>
+    <sortCondition ref="A2:A21"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -1300,10 +1263,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C16F4AC6-2EE3-46DC-9B08-B17A7F3590CB}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J21" sqref="A1:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1350,97 +1313,98 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="13.9">
-      <c r="A2" t="s">
+    <row r="2" spans="1:10">
+      <c r="A2" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="9">
-        <v>0.3</v>
+        <v>2.5</v>
       </c>
       <c r="C2" s="7">
-        <v>6000</v>
+        <v>600</v>
       </c>
       <c r="D2" s="5">
-        <v>1800</v>
-      </c>
-      <c r="E2" s="5">
-        <v>1620</v>
+        <v>1500</v>
+      </c>
+      <c r="E2" s="11">
+        <v>1350</v>
       </c>
       <c r="F2" s="3">
-        <v>45141</v>
-      </c>
-      <c r="G2" s="3">
-        <v>45157</v>
+        <v>45147</v>
+      </c>
+      <c r="G2" s="12">
+        <v>45163</v>
       </c>
       <c r="H2" s="5">
-        <v>148800</v>
+        <v>243000</v>
       </c>
       <c r="I2" s="14">
-        <v>1.0900000000000001</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="J2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>11</v>
+      <c r="A3" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="B3" s="9">
-        <v>1</v>
+        <v>0.23</v>
       </c>
       <c r="C3" s="7">
-        <v>5000</v>
+        <v>130000</v>
       </c>
       <c r="D3" s="5">
-        <v>5000</v>
-      </c>
-      <c r="E3" s="5">
-        <v>4500</v>
+        <v>29900</v>
+      </c>
+      <c r="E3" s="11">
+        <f>D3</f>
+        <v>29900</v>
       </c>
       <c r="F3" s="3">
-        <v>45162</v>
-      </c>
-      <c r="G3" s="3">
-        <v>45177</v>
+        <v>45159</v>
+      </c>
+      <c r="G3" s="12">
+        <v>45175</v>
       </c>
       <c r="H3" s="5">
-        <v>200000</v>
+        <v>1300000</v>
       </c>
       <c r="I3" s="14">
-        <v>2.25</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="10" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B4" s="9">
-        <v>2.5</v>
+        <v>0.223</v>
       </c>
       <c r="C4" s="7">
-        <v>600</v>
+        <v>10000</v>
       </c>
       <c r="D4" s="5">
-        <v>1500</v>
+        <v>2230</v>
       </c>
       <c r="E4" s="11">
-        <v>1350</v>
+        <v>2007</v>
       </c>
       <c r="F4" s="3">
-        <v>45147</v>
+        <v>45161</v>
       </c>
       <c r="G4" s="12">
-        <v>45163</v>
+        <v>45175</v>
       </c>
       <c r="H4" s="5">
-        <v>243000</v>
+        <v>110000</v>
       </c>
       <c r="I4" s="14">
-        <v>0.56000000000000005</v>
+        <v>1.82</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -1448,32 +1412,31 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="10" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B5" s="9">
-        <v>0.23</v>
+        <v>0.1</v>
       </c>
       <c r="C5" s="7">
-        <v>130000</v>
+        <v>15000</v>
       </c>
       <c r="D5" s="5">
-        <v>29900</v>
+        <v>1500</v>
       </c>
       <c r="E5" s="11">
-        <f>D5</f>
-        <v>29900</v>
+        <v>1350</v>
       </c>
       <c r="F5" s="3">
-        <v>45159</v>
+        <v>45163</v>
       </c>
       <c r="G5" s="12">
         <v>45175</v>
       </c>
       <c r="H5" s="5">
-        <v>1300000</v>
+        <v>430500</v>
       </c>
       <c r="I5" s="14">
-        <v>2.0699999999999998</v>
+        <v>0.31</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -1481,31 +1444,31 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B6" s="9">
-        <v>0.223</v>
+        <v>0.193</v>
       </c>
       <c r="C6" s="7">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="D6" s="5">
-        <v>2230</v>
-      </c>
-      <c r="E6" s="5">
-        <v>2007</v>
+        <v>5760</v>
+      </c>
+      <c r="E6" s="15">
+        <v>5211</v>
       </c>
       <c r="F6" s="3">
-        <v>45161</v>
+        <v>45159</v>
       </c>
       <c r="G6" s="3">
-        <v>45175</v>
+        <v>45176</v>
       </c>
       <c r="H6" s="5">
-        <v>110000</v>
+        <v>351000</v>
       </c>
       <c r="I6" s="14">
-        <v>1.82</v>
+        <v>1.48</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -1513,31 +1476,31 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B7" s="9">
-        <v>0.1</v>
+        <v>0.23699999999999999</v>
       </c>
       <c r="C7" s="7">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="D7" s="5">
-        <v>1500</v>
-      </c>
-      <c r="E7" s="5">
-        <v>1350</v>
+        <v>7110</v>
+      </c>
+      <c r="E7" s="15">
+        <v>6399</v>
       </c>
       <c r="F7" s="3">
-        <v>45163</v>
+        <v>45153</v>
       </c>
       <c r="G7" s="3">
-        <v>45175</v>
+        <v>45176</v>
       </c>
       <c r="H7" s="5">
-        <v>430500</v>
+        <v>441000</v>
       </c>
       <c r="I7" s="14">
-        <v>0.31</v>
+        <v>1.45</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -1545,19 +1508,19 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="9">
-        <v>0.193</v>
+        <v>0.6</v>
       </c>
       <c r="C8" s="7">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="D8" s="5">
-        <v>5760</v>
-      </c>
-      <c r="E8" s="5">
-        <v>5184</v>
+        <v>6000</v>
+      </c>
+      <c r="E8" s="15">
+        <v>5520</v>
       </c>
       <c r="F8" s="3">
         <v>45159</v>
@@ -1566,10 +1529,10 @@
         <v>45176</v>
       </c>
       <c r="H8" s="5">
-        <v>351000</v>
+        <v>772500</v>
       </c>
       <c r="I8" s="14">
-        <v>1.48</v>
+        <v>0.7</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -1577,31 +1540,31 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9" s="9">
-        <v>0.23699999999999999</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C9" s="7">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="D9" s="5">
-        <v>7110</v>
-      </c>
-      <c r="E9" s="5">
-        <v>6399</v>
+        <v>17400</v>
+      </c>
+      <c r="E9" s="15">
+        <v>15660</v>
       </c>
       <c r="F9" s="3">
-        <v>45153</v>
+        <v>45161</v>
       </c>
       <c r="G9" s="3">
-        <v>45176</v>
+        <v>45177</v>
       </c>
       <c r="H9" s="5">
-        <v>441000</v>
+        <v>1053000</v>
       </c>
       <c r="I9" s="14">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -1609,31 +1572,31 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="9">
-        <v>0.6</v>
+        <v>0.34</v>
       </c>
       <c r="C10" s="7">
-        <v>10000</v>
+        <v>4200</v>
       </c>
       <c r="D10" s="5">
-        <v>6000</v>
-      </c>
-      <c r="E10" s="5">
-        <v>5400</v>
+        <v>1428</v>
+      </c>
+      <c r="E10" s="15">
+        <v>1285.2</v>
       </c>
       <c r="F10" s="3">
-        <v>45159</v>
+        <v>45162</v>
       </c>
       <c r="G10" s="3">
-        <v>45176</v>
+        <v>45177</v>
       </c>
       <c r="H10" s="5">
-        <v>772500</v>
+        <v>233100</v>
       </c>
       <c r="I10" s="14">
-        <v>0.7</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1644,28 +1607,29 @@
         <v>19</v>
       </c>
       <c r="B11" s="9">
-        <v>0.28999999999999998</v>
+        <v>0.25</v>
       </c>
       <c r="C11" s="7">
-        <v>60000</v>
+        <v>27000</v>
       </c>
       <c r="D11" s="5">
-        <v>17400</v>
-      </c>
-      <c r="E11" s="5">
-        <v>15660</v>
+        <v>6750</v>
+      </c>
+      <c r="E11" s="15">
+        <f>D11</f>
+        <v>6750</v>
       </c>
       <c r="F11" s="3">
-        <v>45161</v>
+        <v>45162</v>
       </c>
       <c r="G11" s="3">
         <v>45177</v>
       </c>
       <c r="H11" s="5">
-        <v>1053000</v>
+        <v>1046250</v>
       </c>
       <c r="I11" s="14">
-        <v>1.49</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -1676,16 +1640,16 @@
         <v>20</v>
       </c>
       <c r="B12" s="9">
-        <v>0.34</v>
+        <v>0.15</v>
       </c>
       <c r="C12" s="7">
-        <v>4200</v>
+        <v>36000</v>
       </c>
       <c r="D12" s="5">
-        <v>1428</v>
-      </c>
-      <c r="E12" s="5">
-        <v>1285.2</v>
+        <v>5400</v>
+      </c>
+      <c r="E12" s="15">
+        <v>4860</v>
       </c>
       <c r="F12" s="3">
         <v>45162</v>
@@ -1694,10 +1658,10 @@
         <v>45177</v>
       </c>
       <c r="H12" s="5">
-        <v>233100</v>
+        <v>367200</v>
       </c>
       <c r="I12" s="14">
-        <v>0.55000000000000004</v>
+        <v>1.32</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -1708,28 +1672,29 @@
         <v>21</v>
       </c>
       <c r="B13" s="9">
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
       <c r="C13" s="7">
         <v>27000</v>
       </c>
       <c r="D13" s="5">
-        <v>6750</v>
-      </c>
-      <c r="E13" s="5">
-        <v>6075</v>
+        <v>1350</v>
+      </c>
+      <c r="E13" s="15">
+        <f>D13</f>
+        <v>1350</v>
       </c>
       <c r="F13" s="3">
-        <v>45162</v>
+        <v>45163</v>
       </c>
       <c r="G13" s="3">
         <v>45177</v>
       </c>
       <c r="H13" s="5">
-        <v>1046250</v>
+        <v>201150</v>
       </c>
       <c r="I13" s="14">
-        <v>0.57999999999999996</v>
+        <v>0.6</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -1737,31 +1702,31 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B14" s="9">
-        <v>0.15</v>
+        <v>0.7</v>
       </c>
       <c r="C14" s="7">
-        <v>36000</v>
+        <v>1200</v>
       </c>
       <c r="D14" s="5">
-        <v>5400</v>
-      </c>
-      <c r="E14" s="5">
-        <v>4860</v>
+        <v>840</v>
+      </c>
+      <c r="E14" s="16">
+        <v>772.8</v>
       </c>
       <c r="F14" s="3">
-        <v>45162</v>
+        <v>45167</v>
       </c>
       <c r="G14" s="3">
-        <v>45177</v>
+        <v>45180</v>
       </c>
       <c r="H14" s="5">
-        <v>367200</v>
+        <v>44400</v>
       </c>
       <c r="I14" s="14">
-        <v>1.32</v>
+        <v>1.7</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -1772,28 +1737,28 @@
         <v>23</v>
       </c>
       <c r="B15" s="9">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="C15" s="7">
-        <v>27000</v>
+        <v>30000</v>
       </c>
       <c r="D15" s="5">
-        <v>1350</v>
-      </c>
-      <c r="E15" s="5">
-        <v>1215</v>
+        <v>2400</v>
+      </c>
+      <c r="E15" s="17">
+        <v>2160</v>
       </c>
       <c r="F15" s="3">
-        <v>45163</v>
+        <v>45166</v>
       </c>
       <c r="G15" s="3">
-        <v>45177</v>
+        <v>45181</v>
       </c>
       <c r="H15" s="5">
-        <v>201150</v>
+        <v>114000</v>
       </c>
       <c r="I15" s="14">
-        <v>0.6</v>
+        <v>1.89</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -1804,28 +1769,28 @@
         <v>25</v>
       </c>
       <c r="B16" s="9">
-        <v>0.08</v>
+        <v>0.25</v>
       </c>
       <c r="C16" s="7">
-        <v>30000</v>
+        <v>7200</v>
       </c>
       <c r="D16" s="5">
-        <v>2400</v>
-      </c>
-      <c r="E16" s="5">
-        <v>2160</v>
+        <v>1800</v>
+      </c>
+      <c r="E16" s="17">
+        <v>1620</v>
       </c>
       <c r="F16" s="3">
         <v>45166</v>
       </c>
       <c r="G16" s="3">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="H16" s="5">
-        <v>114000</v>
+        <v>288000</v>
       </c>
       <c r="I16" s="14">
-        <v>1.89</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -1833,19 +1798,19 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="9">
-        <v>0.25</v>
+        <v>0.16</v>
       </c>
       <c r="C17" s="7">
+        <v>45000</v>
+      </c>
+      <c r="D17" s="5">
         <v>7200</v>
       </c>
-      <c r="D17" s="5">
-        <v>1800</v>
-      </c>
-      <c r="E17" s="5">
-        <v>1620</v>
+      <c r="E17" s="17">
+        <v>6480</v>
       </c>
       <c r="F17" s="3">
         <v>45166</v>
@@ -1854,10 +1819,10 @@
         <v>45182</v>
       </c>
       <c r="H17" s="5">
-        <v>288000</v>
+        <v>495000</v>
       </c>
       <c r="I17" s="14">
-        <v>0.56000000000000005</v>
+        <v>1.31</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -1865,31 +1830,33 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B18" s="9">
-        <v>0.16</v>
+        <v>0.20150000000000001</v>
       </c>
       <c r="C18" s="7">
-        <v>45000</v>
+        <v>42000</v>
       </c>
       <c r="D18" s="5">
-        <v>7200</v>
-      </c>
-      <c r="E18" s="5">
-        <v>6480</v>
+        <f>B18*C18</f>
+        <v>8463</v>
+      </c>
+      <c r="E18" s="17">
+        <f>D18*0.9</f>
+        <v>7616.7</v>
       </c>
       <c r="F18" s="3">
         <v>45166</v>
       </c>
       <c r="G18" s="3">
-        <v>45182</v>
+        <v>45183</v>
       </c>
       <c r="H18" s="5">
-        <v>495000</v>
+        <v>313200</v>
       </c>
       <c r="I18" s="14">
-        <v>1.31</v>
+        <v>2.08</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -1897,65 +1864,63 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" s="9">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="C19" s="7">
-        <v>1200</v>
+        <v>15000</v>
       </c>
       <c r="D19" s="5">
-        <v>840</v>
-      </c>
-      <c r="E19" s="5">
-        <v>756</v>
+        <v>1500</v>
+      </c>
+      <c r="E19" s="17">
+        <v>1350</v>
       </c>
       <c r="F19" s="3">
-        <v>45167</v>
+        <v>45169</v>
       </c>
       <c r="G19" s="3">
-        <v>45182</v>
+        <v>45183</v>
       </c>
       <c r="H19" s="5">
-        <v>44400</v>
+        <v>321900</v>
       </c>
       <c r="I19" s="14">
-        <v>1.7</v>
+        <v>0.42</v>
       </c>
       <c r="J19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="13.9">
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B20" s="9">
-        <v>0.20150000000000001</v>
+        <v>0.13689999999999999</v>
       </c>
       <c r="C20" s="7">
-        <v>42000</v>
+        <v>50000</v>
       </c>
       <c r="D20" s="5">
-        <f>B20*C20</f>
-        <v>8463</v>
-      </c>
-      <c r="E20" s="5">
-        <f>D20*0.9</f>
-        <v>7616.7</v>
+        <v>6845</v>
+      </c>
+      <c r="E20" s="17">
+        <v>6160.5</v>
       </c>
       <c r="F20" s="3">
-        <v>45166</v>
+        <v>45156</v>
       </c>
       <c r="G20" s="3">
-        <v>45183</v>
+        <v>45188</v>
       </c>
       <c r="H20" s="5">
-        <v>313200</v>
+        <v>435000</v>
       </c>
       <c r="I20" s="14">
-        <v>2.08</v>
+        <v>1.42</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -1963,110 +1928,47 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" s="9">
-        <v>0.1</v>
+        <v>0.1009</v>
       </c>
       <c r="C21" s="7">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="D21" s="5">
-        <v>1500</v>
-      </c>
-      <c r="E21" s="5">
-        <v>1350</v>
+        <v>2018</v>
+      </c>
+      <c r="E21" s="17">
+        <f>D21</f>
+        <v>2018</v>
       </c>
       <c r="F21" s="3">
-        <v>45169</v>
+        <v>45170</v>
       </c>
       <c r="G21" s="3">
-        <v>45183</v>
+        <v>45188</v>
       </c>
       <c r="H21" s="5">
-        <v>321900</v>
+        <v>150000</v>
       </c>
       <c r="I21" s="14">
-        <v>0.42</v>
+        <v>1.21</v>
       </c>
       <c r="J21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
-      <c r="A22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="9">
-        <v>0.13689999999999999</v>
-      </c>
-      <c r="C22" s="7">
-        <v>50000</v>
-      </c>
-      <c r="D22" s="5">
-        <v>6845</v>
-      </c>
+    <row r="22" spans="1:10" ht="13.9">
       <c r="E22" s="5">
-        <v>6160.5</v>
-      </c>
-      <c r="F22" s="3">
-        <v>45156</v>
-      </c>
-      <c r="G22" s="3">
-        <v>45188</v>
-      </c>
-      <c r="H22" s="5">
-        <v>435000</v>
-      </c>
-      <c r="I22" s="14">
-        <v>1.42</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="13.9">
-      <c r="A23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="9">
-        <v>0.1009</v>
-      </c>
-      <c r="C23" s="7">
-        <v>20000</v>
-      </c>
-      <c r="D23" s="5">
-        <v>2018</v>
-      </c>
-      <c r="E23" s="5">
-        <v>1816.2</v>
-      </c>
-      <c r="F23" s="3">
-        <v>45170</v>
-      </c>
-      <c r="G23" s="3">
-        <v>45188</v>
-      </c>
-      <c r="H23" s="5">
-        <v>150000</v>
-      </c>
-      <c r="I23" s="14">
-        <v>1.21</v>
-      </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="13.9">
-      <c r="E24" s="5">
-        <f>SUM(E2:E23)</f>
-        <v>114764.59999999999</v>
+        <f>SUM(E2:E21)</f>
+        <v>109820.2</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J23">
-    <sortCondition descending="1" ref="J2:J23"/>
-    <sortCondition ref="G2:G23"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J21">
+    <sortCondition descending="1" ref="J2:J21"/>
+    <sortCondition ref="G2:G21"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0"/>
